--- a/output_analysis/SPREAD_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,572 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>228 249 265 291 292</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>234 259 268 281</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
       </c>
       <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1 7 24 73 95</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27 59 86 120 171</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95</v>
+      </c>
+      <c r="E4" t="n">
         <v>98</v>
       </c>
-      <c r="F2" t="n">
-        <v>70</v>
-      </c>
-      <c r="G2" t="n">
-        <v>98</v>
-      </c>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34 59 120 188</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>82</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>82</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>38 57 86 109 176</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>88</v>
-      </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>88</v>
-      </c>
-      <c r="H4" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>118 136 137 148 169</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88 137 148 178 238</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121 132 143</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>207 214 242 258 270</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4 42 69 299</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90 123</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>72</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>72</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>241 249 260 273</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>65</v>
-      </c>
-      <c r="G7" t="n">
-        <v>86</v>
-      </c>
-      <c r="H7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28 36 53 113 156</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>98</v>
-      </c>
       <c r="F8" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>104 130 219 285</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>33 42 51 114 209</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>194 220 231 273</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>61 92 95 108 157</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>199 221 253 255</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>64 144 166 189 263</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2 28 34 57 131</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
         <v>79</v>
       </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>223 243 250 262 270</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>98</v>
       </c>
-      <c r="F12" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6 15 32 48 119</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
       <c r="F13" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9 22 35 53 145</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>37 47 54 62 167 266</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10 36 71 163 205 210</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>65 77 173</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>76 108 116 125 211</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217 233 236 245 261 281 286</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>87</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5 21 44 72 106 162</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>90</v>
+      </c>
+      <c r="E18" t="n">
         <v>100</v>
       </c>
-      <c r="H15" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>83 117 122 240</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>94</v>
-      </c>
-      <c r="F16" t="n">
-        <v>64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>94</v>
-      </c>
-      <c r="H16" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9 30 49 63 84</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="F18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15 20 51 85 153 170</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>98</v>
+      </c>
+      <c r="E19" t="n">
         <v>100</v>
       </c>
-      <c r="F17" t="n">
-        <v>82</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F19" t="n">
+        <v>32</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>62 74 88 195</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>84</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>77 127 133 193 209</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
         <v>100</v>
       </c>
-      <c r="H17" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>58 67 79 99 107 172 207</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>95</v>
-      </c>
-      <c r="G18" t="n">
-        <v>98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>68 81 93 146</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>98</v>
-      </c>
-      <c r="F19" t="n">
-        <v>73</v>
-      </c>
-      <c r="G19" t="n">
-        <v>98</v>
-      </c>
-      <c r="H19" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>155 161 181 204 210</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>74</v>
-      </c>
-      <c r="G20" t="n">
-        <v>88</v>
-      </c>
-      <c r="H20" t="n">
-        <v>74</v>
+      <c r="F21" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
